--- a/techniqo/data_new_ticker/TEAMLEASE.xlsx
+++ b/techniqo/data_new_ticker/TEAMLEASE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1132"/>
+  <dimension ref="A1:G1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40006,6 +40006,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>2478</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>2549.8</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>2343</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>2382.45</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>48548</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>2398.95</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>2414.95</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>2365.85</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>2384.6</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>12264</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TEAMLEASE.xlsx
+++ b/techniqo/data_new_ticker/TEAMLEASE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1134"/>
+  <dimension ref="A1:G1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40056,6 +40056,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>2440</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>2391.65</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>2421.5</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>6625</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>2450.5</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>2311.55</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>2375.65</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>24905</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
